--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/123.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/123.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1738753671003452</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.262339102838464</v>
+        <v>-1.297275133557728</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07582226147296477</v>
+        <v>-0.06942433073860285</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1730658444717569</v>
+        <v>-0.1608233412294874</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1599296446937919</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.354412655547349</v>
+        <v>-1.400818824068791</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1844863406388447</v>
+        <v>-0.1856237181016626</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1778066206229374</v>
+        <v>-0.1666927345549404</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1494237520284594</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.485381889398041</v>
+        <v>-1.536273325654754</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1839680235665721</v>
+        <v>-0.1792287074634825</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1949797062682055</v>
+        <v>-0.1951768127604782</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1431433780630575</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.649050360292724</v>
+        <v>-1.694044662310257</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2036407115434759</v>
+        <v>-0.204678805736112</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1786461482752099</v>
+        <v>-0.1757187518529379</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1386173015337507</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.755943401124332</v>
+        <v>-1.787436638445232</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2156233262255636</v>
+        <v>-0.221389056136562</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1875816425915711</v>
+        <v>-0.1802156999729367</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.133053345736959</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.604701399531372</v>
+        <v>-1.64022290953509</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1221919287921341</v>
+        <v>-0.1237556402974974</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1760501827695742</v>
+        <v>-0.1789585985666644</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1241924822589887</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.408961512271789</v>
+        <v>-1.430254853629601</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05410550616878879</v>
+        <v>-0.06839645688260312</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1626805224011233</v>
+        <v>-0.1683017075511218</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1104406042613904</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.200935320327208</v>
+        <v>-1.235572041187835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06977227410435977</v>
+        <v>0.06291150812517979</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1555423472846706</v>
+        <v>-0.1643843985232137</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08994192150224146</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8440762061396676</v>
+        <v>-0.892268013476291</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1528636109579738</v>
+        <v>0.147968069709157</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.138281658753948</v>
+        <v>-0.148932709577127</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06066343717629202</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4914322507905804</v>
+        <v>-0.5438348368213846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1421804390767949</v>
+        <v>0.1318505988336158</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0726889982698747</v>
+        <v>-0.08672298051968912</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01993426995797813</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04630346109109335</v>
+        <v>0.004233635399650095</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209849209410733</v>
+        <v>0.103175254328169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04656334965127509</v>
+        <v>0.03655910013236869</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.03471124660886363</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5408567906360514</v>
+        <v>0.4934271284028824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06222820561863452</v>
+        <v>0.04003839473300412</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1893107914513277</v>
+        <v>0.1777019490805126</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1034368975720577</v>
       </c>
       <c r="E14" t="n">
-        <v>1.116672016776715</v>
+        <v>1.081162187157725</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06849720020087582</v>
+        <v>-0.1198310310291348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2922179009947546</v>
+        <v>0.2779941124931221</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1846742175310201</v>
       </c>
       <c r="E15" t="n">
-        <v>1.753215023162544</v>
+        <v>1.718349074751644</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2162803478664725</v>
+        <v>-0.2734032693751844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5126924629624227</v>
+        <v>0.5053907624597882</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.276504411842555</v>
       </c>
       <c r="E16" t="n">
-        <v>2.42227330053291</v>
+        <v>2.384472655459284</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3655235436229779</v>
+        <v>-0.4253884354464164</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6427228858906605</v>
+        <v>0.6360271053457531</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3764200425317999</v>
       </c>
       <c r="E17" t="n">
-        <v>3.08261363075246</v>
+        <v>3.049734807793287</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5010379071806688</v>
+        <v>-0.5631016314290157</v>
       </c>
       <c r="G17" t="n">
-        <v>0.78991617412753</v>
+        <v>0.7810361616386233</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4830083536866122</v>
       </c>
       <c r="E18" t="n">
-        <v>3.681662602163754</v>
+        <v>3.640627950568764</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6445328936032666</v>
+        <v>-0.7177148840638833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9612469774033022</v>
+        <v>0.9526326936669409</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5961670447390739</v>
       </c>
       <c r="E19" t="n">
-        <v>4.184739692463436</v>
+        <v>4.135963865890449</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8193853328743106</v>
+        <v>-0.9021262581861065</v>
       </c>
       <c r="G19" t="n">
-        <v>1.075895793693817</v>
+        <v>1.066685810336365</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7155068922260823</v>
       </c>
       <c r="E20" t="n">
-        <v>4.657154312805946</v>
+        <v>4.595572404427599</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9943969173872635</v>
+        <v>-1.078856319302059</v>
       </c>
       <c r="G20" t="n">
-        <v>1.249835702908043</v>
+        <v>1.253496043471951</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8384938662918274</v>
       </c>
       <c r="E21" t="n">
-        <v>5.156652825234812</v>
+        <v>5.099297756079646</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.195027965751392</v>
+        <v>-1.290906403785184</v>
       </c>
       <c r="G21" t="n">
-        <v>1.408237780338819</v>
+        <v>1.408401305725</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9580608408426072</v>
       </c>
       <c r="E22" t="n">
-        <v>5.544470799141981</v>
+        <v>5.489413845681905</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.377741303943888</v>
+        <v>-1.467490460092046</v>
       </c>
       <c r="G22" t="n">
-        <v>1.528509241827423</v>
+        <v>1.528353016681695</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.063193429932275</v>
       </c>
       <c r="E23" t="n">
-        <v>5.795686673663731</v>
+        <v>5.731099986314294</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.580067468141561</v>
+        <v>-1.678403167112353</v>
       </c>
       <c r="G23" t="n">
-        <v>1.676029580836656</v>
+        <v>1.674484849956474</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.143337832738431</v>
       </c>
       <c r="E24" t="n">
-        <v>6.078128596705747</v>
+        <v>6.003146366949039</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.724000468991431</v>
+        <v>-1.821015554463996</v>
       </c>
       <c r="G24" t="n">
-        <v>1.831039966552251</v>
+        <v>1.833688493789159</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.192497303866516</v>
       </c>
       <c r="E25" t="n">
-        <v>6.198871653727714</v>
+        <v>6.11055918490101</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.897062159278976</v>
+        <v>-2.005825521715038</v>
       </c>
       <c r="G25" t="n">
-        <v>1.857734025798334</v>
+        <v>1.847994044983882</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.209965463213492</v>
       </c>
       <c r="E26" t="n">
-        <v>6.233832505264523</v>
+        <v>6.12887548820146</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.939420344468374</v>
+        <v>-2.049218881000889</v>
       </c>
       <c r="G26" t="n">
-        <v>1.854380295333517</v>
+        <v>1.838934446579794</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.199305594520027</v>
       </c>
       <c r="E27" t="n">
-        <v>6.23450266733825</v>
+        <v>6.122424995735825</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.999781652642721</v>
+        <v>-2.104084568161057</v>
       </c>
       <c r="G27" t="n">
-        <v>1.947290455598492</v>
+        <v>1.933995257682677</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.165354669372227</v>
       </c>
       <c r="E28" t="n">
-        <v>6.317015825147864</v>
+        <v>6.20005429268135</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.0780526407242</v>
+        <v>-2.178630243538582</v>
       </c>
       <c r="G28" t="n">
-        <v>1.981208832798392</v>
+        <v>1.962234047808943</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.11246962020544</v>
       </c>
       <c r="E29" t="n">
-        <v>6.209328518154802</v>
+        <v>6.092034094723561</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.143062011995955</v>
+        <v>-2.240106298430338</v>
       </c>
       <c r="G29" t="n">
-        <v>1.989442043983026</v>
+        <v>1.966963143575396</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.044791845339142</v>
       </c>
       <c r="E30" t="n">
-        <v>6.168217944059085</v>
+        <v>6.050962941926299</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.252533497756108</v>
+        <v>-2.350572076940399</v>
       </c>
       <c r="G30" t="n">
-        <v>2.017482267568928</v>
+        <v>1.991494871598844</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9659327706085626</v>
       </c>
       <c r="E31" t="n">
-        <v>6.052733980260571</v>
+        <v>5.921577860254243</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.312368458593682</v>
+        <v>-2.420418587537335</v>
       </c>
       <c r="G31" t="n">
-        <v>1.947759131035674</v>
+        <v>1.918693953689954</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8805085059811298</v>
       </c>
       <c r="E32" t="n">
-        <v>5.837124298531811</v>
+        <v>5.695290846836667</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.334757566043722</v>
+        <v>-2.431440490575605</v>
       </c>
       <c r="G32" t="n">
-        <v>1.923030296519953</v>
+        <v>1.903521133929231</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7927625174204964</v>
       </c>
       <c r="E33" t="n">
-        <v>5.653948125094496</v>
+        <v>5.511283906035626</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.384445192649481</v>
+        <v>-2.482293965581955</v>
       </c>
       <c r="G33" t="n">
-        <v>1.913998439029592</v>
+        <v>1.895724477123778</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7061036143424029</v>
       </c>
       <c r="E34" t="n">
-        <v>5.401425507531383</v>
+        <v>5.25941685006533</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.474490008536048</v>
+        <v>-2.573634574149203</v>
       </c>
       <c r="G34" t="n">
-        <v>1.82801912705216</v>
+        <v>1.806791487858439</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6224596758173561</v>
       </c>
       <c r="E35" t="n">
-        <v>5.206888699898708</v>
+        <v>5.055642318161476</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.478270073043411</v>
+        <v>-2.569477087210341</v>
       </c>
       <c r="G35" t="n">
-        <v>1.779828779763628</v>
+        <v>1.762147597382723</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5434123060063754</v>
       </c>
       <c r="E36" t="n">
-        <v>5.015775705039213</v>
+        <v>4.861327437838619</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.449237746779736</v>
+        <v>-2.530763182055851</v>
       </c>
       <c r="G36" t="n">
-        <v>1.688917425335107</v>
+        <v>1.670532499774384</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4701831233189708</v>
       </c>
       <c r="E37" t="n">
-        <v>4.673004594880851</v>
+        <v>4.527767771085799</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.386093586944117</v>
+        <v>-2.465120149912641</v>
       </c>
       <c r="G37" t="n">
-        <v>1.597316928207677</v>
+        <v>1.581976202916499</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4031870700099973</v>
       </c>
       <c r="E38" t="n">
-        <v>4.488810767924173</v>
+        <v>4.353494970906846</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.262075642054241</v>
+        <v>-2.328754578317951</v>
       </c>
       <c r="G38" t="n">
-        <v>1.50679832671561</v>
+        <v>1.484461050972798</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3438728594779353</v>
       </c>
       <c r="E39" t="n">
-        <v>4.147765434609265</v>
+        <v>4.014600288429846</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.235148705137658</v>
+        <v>-2.29652255666305</v>
       </c>
       <c r="G39" t="n">
-        <v>1.398918293374548</v>
+        <v>1.380006290453008</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2928007463412436</v>
       </c>
       <c r="E40" t="n">
-        <v>3.812712138659446</v>
+        <v>3.669897534647211</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.160513966826587</v>
+        <v>-2.208267759735937</v>
       </c>
       <c r="G40" t="n">
-        <v>1.291362390709668</v>
+        <v>1.273243193901491</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2498096285797491</v>
       </c>
       <c r="E41" t="n">
-        <v>3.541216196154973</v>
+        <v>3.404500213018464</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.060759101111432</v>
+        <v>-2.108137661661419</v>
       </c>
       <c r="G41" t="n">
-        <v>1.172702822313427</v>
+        <v>1.148338999820434</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2141541570088974</v>
       </c>
       <c r="E42" t="n">
-        <v>3.222008802135786</v>
+        <v>3.073846041966553</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.954677847018369</v>
+        <v>-1.998427458038403</v>
       </c>
       <c r="G42" t="n">
-        <v>1.075040205512544</v>
+        <v>1.05207218899446</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1841759406986443</v>
       </c>
       <c r="E43" t="n">
-        <v>2.997541008639483</v>
+        <v>2.865632963866336</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.924590636009014</v>
+        <v>-1.973229948085501</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9657935671583919</v>
+        <v>0.9385096484835811</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1580466531357245</v>
       </c>
       <c r="E44" t="n">
-        <v>2.742039892970915</v>
+        <v>2.607243873073951</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.88415898427557</v>
+        <v>-1.934878864881602</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8421683752049706</v>
+        <v>0.8156831028358867</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.133710747398652</v>
       </c>
       <c r="E45" t="n">
-        <v>2.479637129976622</v>
+        <v>2.353018839436837</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.745085023472244</v>
+        <v>-1.79456605327314</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7370551329961806</v>
+        <v>0.7175328299726403</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.109815217208651</v>
       </c>
       <c r="E46" t="n">
-        <v>2.272368702991223</v>
+        <v>2.147248421792711</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.675431969247353</v>
+        <v>-1.727573206669885</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7155617650499136</v>
+        <v>0.7020636204494627</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.08540264911398185</v>
       </c>
       <c r="E47" t="n">
-        <v>1.961166752654488</v>
+        <v>1.837056824734885</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.630607032808365</v>
+        <v>-1.690311319341804</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6022036312717622</v>
+        <v>0.5893274671580384</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0604447894213978</v>
       </c>
       <c r="E48" t="n">
-        <v>1.8141530503328</v>
+        <v>1.693500516292469</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.56163728109002</v>
+        <v>-1.613928903465915</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5311722916490541</v>
+        <v>0.5182815270544212</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.03530010340019915</v>
       </c>
       <c r="E49" t="n">
-        <v>1.622454576188852</v>
+        <v>1.502063390756793</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.544519677272207</v>
+        <v>-1.602867579129191</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4553271734706199</v>
+        <v>0.4403237192884421</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01083182926095392</v>
       </c>
       <c r="E50" t="n">
-        <v>1.51600392992879</v>
+        <v>1.393435812793186</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.425775426086693</v>
+        <v>-1.479915469345679</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4020120573829978</v>
+        <v>0.3915727135330007</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01224829927305472</v>
       </c>
       <c r="E51" t="n">
-        <v>1.370180166801192</v>
+        <v>1.256753410762768</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.368801429483254</v>
+        <v>-1.422683044230149</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3326028311892892</v>
+        <v>0.3249638595776549</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03340858709329127</v>
       </c>
       <c r="E52" t="n">
-        <v>1.280452911374398</v>
+        <v>1.166683044034611</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.309910389736452</v>
+        <v>-1.362364077450438</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2664290715650343</v>
+        <v>0.2606940026639449</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05199533696474179</v>
       </c>
       <c r="E53" t="n">
-        <v>1.059533034739003</v>
+        <v>0.9447236131584885</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.258420333762465</v>
+        <v>-1.314846812331814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2273479643156811</v>
+        <v>0.2265186570000449</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06807674264835754</v>
       </c>
       <c r="E54" t="n">
-        <v>1.128169895492621</v>
+        <v>1.025004357437103</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.251869097978558</v>
+        <v>-1.306381453500725</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1400808899220682</v>
+        <v>0.1316666327741613</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0818244429702196</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9438957658909433</v>
+        <v>0.8337774788265182</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.224231847665747</v>
+        <v>-1.283566742032186</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09256654489962637</v>
+        <v>0.08573059973799185</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09382985862465631</v>
       </c>
       <c r="E56" t="n">
-        <v>0.92515604864413</v>
+        <v>0.8194938283531584</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.190531017631393</v>
+        <v>-1.247875866449923</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05579815382627262</v>
+        <v>0.0513990289283647</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1044003321644975</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8276846981431563</v>
+        <v>0.7258959854373654</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.160697854989855</v>
+        <v>-1.221618361583021</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02691548249191673</v>
+        <v>0.02214988552319074</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1136802130163001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7746688919141705</v>
+        <v>0.6765726408302878</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.149296339447949</v>
+        <v>-1.21244195933166</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.06855706217260309</v>
+        <v>-0.0767172709526918</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.122045019776628</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6497982789392041</v>
+        <v>0.5403224130347789</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.083702218915785</v>
+        <v>-1.149735813923313</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1308281132498591</v>
+        <v>-0.1319465100874952</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1299347973573252</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6675393232918356</v>
+        <v>0.5660367800118629</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.032965547756708</v>
+        <v>-1.102022902360507</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1560446038279432</v>
+        <v>-0.1545991562179436</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1378006922237302</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5371584888217797</v>
+        <v>0.4327139486386259</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.034196368297344</v>
+        <v>-1.101554226923326</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2009002012768403</v>
+        <v>-0.2075039987920203</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1454575001658212</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4499644168327122</v>
+        <v>0.336939174019288</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.026209905240073</v>
+        <v>-1.09048998249042</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2695750232808218</v>
+        <v>-0.2684157450966403</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1528240827729216</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3970099326235446</v>
+        <v>0.2828049709526662</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.105416054123779</v>
+        <v>-1.179072560213941</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.299764437656541</v>
+        <v>-0.3023385024408131</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1595873684932235</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3181279144160203</v>
+        <v>0.2040879381794146</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.053831095023884</v>
+        <v>-1.118509765403048</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3559806693007986</v>
+        <v>-0.3588671843765252</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1657805832980918</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2462088655540397</v>
+        <v>0.1293699771271619</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9952422852318997</v>
+        <v>-1.062673146262427</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.384152297214882</v>
+        <v>-0.3875118678720629</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1710757938874592</v>
       </c>
       <c r="E66" t="n">
-        <v>0.187947106534419</v>
+        <v>0.06266622004590713</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.047481345876522</v>
+        <v>-1.124719349933683</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4071071733001486</v>
+        <v>-0.4097936617874205</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1752864438473893</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2214727307978645</v>
+        <v>0.09741244451335235</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.036541205531343</v>
+        <v>-1.110680987539596</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4285976211502337</v>
+        <v>-0.4306898700645058</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1780895897672211</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1333821892809791</v>
+        <v>0.01281287798182961</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.080792343070604</v>
+        <v>-1.159053840839492</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4429747147014116</v>
+        <v>-0.4507348703045914</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.179146691712799</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0884243884657184</v>
+        <v>-0.02684056811915974</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.117734479866776</v>
+        <v>-1.197626851353209</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.457408750128135</v>
+        <v>-0.4619860008931338</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1781599719883191</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03454861391118741</v>
+        <v>-0.09623957397623202</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.197848778663027</v>
+        <v>-1.278456573714005</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4938617708138525</v>
+        <v>-0.5001969194803053</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1747172240268575</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.02398763414952414</v>
+        <v>-0.1475704847083091</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.348143209044987</v>
+        <v>-1.435303699927963</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5712998014594681</v>
+        <v>-0.582142118582556</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.168530441388743</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.07183195004051129</v>
+        <v>-0.1954921831481145</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.385187549207522</v>
+        <v>-1.478159031492315</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5558495725614723</v>
+        <v>-0.5609845616971981</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1593736163976095</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07916285150496387</v>
+        <v>-0.1919544866238427</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.397329309131519</v>
+        <v>-1.492055769221585</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5809799203021928</v>
+        <v>-0.5895474824996451</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1469709664633032</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.03689007912888432</v>
+        <v>-0.1638631613547593</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.441103010945053</v>
+        <v>-1.537999102498208</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.589211671438736</v>
+        <v>-0.5973163983913702</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1310946088539935</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01076005036601198</v>
+        <v>-0.09902680578177672</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.509100370634853</v>
+        <v>-1.601641138732828</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5683169232097416</v>
+        <v>-0.583535004461283</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1116776025154512</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05770351658490847</v>
+        <v>-0.05508665848587943</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.426842721241147</v>
+        <v>-1.514333182992669</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5713465229983772</v>
+        <v>-0.5877852044539182</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08872487943997406</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1847423009748743</v>
+        <v>0.07559932603517638</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.420919306136331</v>
+        <v>-1.512194212539488</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4796175416389473</v>
+        <v>-0.4852752279912185</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06229497402507711</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3218889982982012</v>
+        <v>0.2307965979064074</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.37480368718498</v>
+        <v>-1.462686901872956</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5016233864651232</v>
+        <v>-0.5081892227299396</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.03307979589940278</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4058753446315422</v>
+        <v>0.3168970938753843</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.33601750964999</v>
+        <v>-1.417394750044877</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4449413994798657</v>
+        <v>-0.4518488869979547</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.00178678930379106</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5442849835535051</v>
+        <v>0.4699480950529796</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.351978755379804</v>
+        <v>-1.429438686746783</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4086811051421481</v>
+        <v>-0.4154571883320554</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.03027798176955589</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5808723286635862</v>
+        <v>0.510544732220696</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.295978610853001</v>
+        <v>-1.369365008046345</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3180179588890816</v>
+        <v>-0.3247283399148979</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06193162759796102</v>
       </c>
       <c r="E82" t="n">
-        <v>0.694991147497101</v>
+        <v>0.6418234962666607</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.228645573044564</v>
+        <v>-1.295073381036637</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2920130423419067</v>
+        <v>-0.2962194408918147</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.09170351283219837</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8372874344370628</v>
+        <v>0.7998284406167092</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.196095260905846</v>
+        <v>-1.264250305789464</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.227499357397015</v>
+        <v>-0.2372626989809214</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1177986160261053</v>
       </c>
       <c r="E84" t="n">
-        <v>1.055066747628913</v>
+        <v>1.030336453065102</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.136256649948044</v>
+        <v>-1.212785070633023</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1976837153325684</v>
+        <v>-0.2056249168990208</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1383472351599649</v>
       </c>
       <c r="E85" t="n">
-        <v>1.141735202305254</v>
+        <v>1.119135117906078</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.01105314600835</v>
+        <v>-1.06960253450188</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1464842089286731</v>
+        <v>-0.1562183495507614</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1510640801549976</v>
       </c>
       <c r="E86" t="n">
-        <v>1.344414698140927</v>
+        <v>1.333315412553839</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.926729528566009</v>
+        <v>-0.9897014027269012</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07075589459751158</v>
+        <v>-0.07350954529696539</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1539550869547109</v>
       </c>
       <c r="E87" t="n">
-        <v>1.451081431518443</v>
+        <v>1.454654169196897</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8393252096518506</v>
+        <v>-0.9006501495661978</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01747873976025317</v>
+        <v>-0.0214967921064339</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.144882036260419</v>
       </c>
       <c r="E88" t="n">
-        <v>1.564113974572322</v>
+        <v>1.583126720812135</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7076799735350678</v>
+        <v>-0.7696268939361421</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01045198021883024</v>
+        <v>0.001528166287196277</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1227609687065458</v>
       </c>
       <c r="E89" t="n">
-        <v>1.665607757563749</v>
+        <v>1.704550160244466</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6110218698207301</v>
+        <v>-0.6721321826657137</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07146008969745023</v>
+        <v>0.0692072354931781</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08740887853724712</v>
       </c>
       <c r="E90" t="n">
-        <v>1.705367787175375</v>
+        <v>1.751049771843727</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5169057098326645</v>
+        <v>-0.5820457554085561</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0734866364476315</v>
+        <v>0.06609003281908803</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04078965471600305</v>
       </c>
       <c r="E91" t="n">
-        <v>1.708880662882101</v>
+        <v>1.751579769300726</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3331017157162594</v>
+        <v>-0.3972795896002421</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1118318794591667</v>
+        <v>0.1076240208611678</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01334688984650664</v>
       </c>
       <c r="E92" t="n">
-        <v>1.701849071276285</v>
+        <v>1.741468936271184</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1902549906460249</v>
+        <v>-0.2525494024927355</v>
       </c>
       <c r="G92" t="n">
-        <v>0.13002553871998</v>
+        <v>0.122461029560982</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0695047660286201</v>
       </c>
       <c r="E93" t="n">
-        <v>1.720233996837008</v>
+        <v>1.75875152552327</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01687281980252605</v>
+        <v>-0.07542950853651033</v>
       </c>
       <c r="G93" t="n">
-        <v>0.112097608211712</v>
+        <v>0.1068078539783498</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1214567007991482</v>
       </c>
       <c r="E94" t="n">
-        <v>1.669174655049839</v>
+        <v>1.709888096064828</v>
       </c>
       <c r="F94" t="n">
-        <v>0.07699075186581238</v>
+        <v>0.01390353390573841</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04726563278300218</v>
+        <v>0.04143128061173101</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.163994761233341</v>
       </c>
       <c r="E95" t="n">
-        <v>1.60358783475813</v>
+        <v>1.644260394426573</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1964606469525076</v>
+        <v>0.1498602920349746</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02162134811428179</v>
+        <v>0.02137313993882731</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1931526332483306</v>
       </c>
       <c r="E96" t="n">
-        <v>1.494160150440704</v>
+        <v>1.531489199980967</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2373142525842239</v>
+        <v>0.1882624769220552</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0008361034921055536</v>
+        <v>0.003483170680923024</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2079595629122584</v>
       </c>
       <c r="E97" t="n">
-        <v>1.345715600989926</v>
+        <v>1.377340242639009</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3041523340898423</v>
+        <v>0.2667707228183069</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03862315621279294</v>
+        <v>-0.04303542154351903</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2098382039334077</v>
       </c>
       <c r="E98" t="n">
-        <v>1.242401138029136</v>
+        <v>1.27118452609331</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3399527132789236</v>
+        <v>0.3170109776264752</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04433632439251868</v>
+        <v>-0.04223969533397379</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2034836350943498</v>
       </c>
       <c r="E99" t="n">
-        <v>1.077760275105907</v>
+        <v>1.092871772846812</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3446088066408314</v>
+        <v>0.3227124654214737</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09669072883632281</v>
+        <v>-0.1004518127185036</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1927986431226215</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9938425510328389</v>
+        <v>1.016048422447469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3117635647877494</v>
+        <v>0.3006817997777523</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1484231527933998</v>
+        <v>-0.1548225435758527</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1831916394680201</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8677396574691455</v>
+        <v>0.8885030013699581</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3513834297826478</v>
+        <v>0.339194948319742</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09287562317477838</v>
+        <v>-0.09197769359886952</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1780495160951421</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7216574658294574</v>
+        <v>0.7446576034055422</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2855133601613019</v>
+        <v>0.2727437795582144</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2002154387222041</v>
+        <v>-0.2021704431159309</v>
       </c>
     </row>
   </sheetData>
